--- a/Trabajo/results/hybrid-10.xlsx
+++ b/Trabajo/results/hybrid-10.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>AEO</t>
   </si>
   <si>
     <t>DE</t>
+  </si>
+  <si>
+    <t>HYBRID</t>
   </si>
   <si>
     <t>PSO</t>
@@ -489,13 +492,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,532 +511,628 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" s="3">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5133778.780000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>29156437.197134</v>
+      </c>
+      <c r="E3" s="3">
+        <v>52551101.28431372</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3765.829481794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>15561808639900</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>357.5283114706</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1734.885541</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1988.8789721569</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1e-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>14.1446846675</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.000110504</v>
+      </c>
+      <c r="D6" s="3">
+        <v>19.992518944</v>
+      </c>
+      <c r="E6" s="3">
+        <v>46.8426931529</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.1722461794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>38.7550811373</v>
+      </c>
+      <c r="C7" s="3">
+        <v>115.0819266667</v>
+      </c>
+      <c r="D7" s="3">
+        <v>213.4051</v>
+      </c>
+      <c r="E7" s="2">
+        <v>32.1200361373</v>
+      </c>
+      <c r="F7" s="3">
+        <v>48.4044775882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>26.1708063235</v>
+      </c>
+      <c r="C8" s="3">
+        <v>34.5970701961</v>
+      </c>
+      <c r="D8" s="3">
+        <v>91.327386</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10.0100629392</v>
+      </c>
+      <c r="F8" s="3">
+        <v>26.321271602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>67.5254553529</v>
+      </c>
+      <c r="C9" s="2">
+        <v>38.4805584314</v>
+      </c>
+      <c r="D9" s="3">
+        <v>749.1566</v>
+      </c>
+      <c r="E9" s="3">
+        <v>42.7520633529</v>
+      </c>
+      <c r="F9" s="3">
+        <v>61.9804303725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>28.0813021569</v>
+      </c>
+      <c r="C10" s="3">
+        <v>29.8291998039</v>
+      </c>
+      <c r="D10" s="3">
+        <v>168.78642</v>
+      </c>
+      <c r="E10" s="2">
+        <v>22.0318125882</v>
+      </c>
+      <c r="F10" s="3">
+        <v>38.4871733431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <v>220.6905729608</v>
+      </c>
+      <c r="C11" s="3">
+        <v>193.7879727451</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1687.59405</v>
+      </c>
+      <c r="E11" s="2">
+        <v>56.8646680471</v>
+      </c>
+      <c r="F11" s="3">
+        <v>243.9286432745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1171.6547498039</v>
+      </c>
+      <c r="C12" s="2">
+        <v>359.6807647059</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1519.4922</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1076.8948962745</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1085.7101735294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>97.0394383333</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.0194194193</v>
+      </c>
+      <c r="D13" s="3">
+        <v>85.93879699999999</v>
+      </c>
+      <c r="E13" s="3">
+        <v>38.427373402</v>
+      </c>
+      <c r="F13" s="3">
+        <v>95.28658498039999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3">
+        <v>252464.2766784314</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4.9310863431</v>
+      </c>
+      <c r="D14" s="3">
+        <v>6439314.527</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2516940.72382353</v>
+      </c>
+      <c r="F14" s="3">
+        <v>23134.8688411765</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3">
+        <v>778.7868645098</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5.9881427451</v>
+      </c>
+      <c r="D15" s="3">
+        <v>6004.7416</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8408.5995323529</v>
+      </c>
+      <c r="F15" s="3">
+        <v>8101.3705870588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3">
+        <v>74.5243931373</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.0523983308</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3112.08995</v>
+      </c>
+      <c r="E16" s="3">
+        <v>99.9258436863</v>
+      </c>
+      <c r="F16" s="3">
+        <v>118.1036978627</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3">
+        <v>204.4903833922</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.0606027963</v>
+      </c>
+      <c r="D17" s="3">
+        <v>7343.88438</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2065.840625</v>
+      </c>
+      <c r="F17" s="3">
+        <v>524.3520335294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3">
+        <v>180.410618451</v>
+      </c>
+      <c r="C18" s="3">
+        <v>456.0592137255</v>
+      </c>
+      <c r="D18" s="3">
+        <v>650.55484</v>
+      </c>
+      <c r="E18" s="2">
+        <v>141.4558021706</v>
+      </c>
+      <c r="F18" s="3">
+        <v>188.392458302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3">
+        <v>89.6863405686</v>
+      </c>
+      <c r="C19" s="2">
+        <v>23.5045311765</v>
+      </c>
+      <c r="D19" s="3">
+        <v>542.263184</v>
+      </c>
+      <c r="E19" s="3">
+        <v>64.9718998627</v>
+      </c>
+      <c r="F19" s="3">
+        <v>97.6907592745</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1926.033136549</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.0362999907</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3126.6394</v>
+      </c>
+      <c r="E20" s="3">
+        <v>14840.0973715686</v>
+      </c>
+      <c r="F20" s="3">
+        <v>13604.2452390196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="3">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3">
-        <v>178164635.1764706</v>
-      </c>
-      <c r="C3" s="3">
-        <v>49094.7221568628</v>
-      </c>
-      <c r="D3" s="3">
-        <v>4175042517.647059</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3765.1477069412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1.308599303e+19</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3">
-        <v>29892.330254902</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3481.0788823529</v>
-      </c>
-      <c r="D5" s="3">
-        <v>54534.2773137255</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.41565e-05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3">
-        <v>201.821947451</v>
-      </c>
-      <c r="C6" s="3">
-        <v>84.30386294119999</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1183.1913260784</v>
-      </c>
-      <c r="E6" s="2">
-        <v>83.88224020929999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3">
-        <v>249.6142507843</v>
-      </c>
-      <c r="C7" s="2">
-        <v>201.4980607843</v>
-      </c>
-      <c r="D7" s="3">
-        <v>217.0438413725</v>
-      </c>
-      <c r="E7" s="3">
-        <v>264.9099132157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3">
-        <v>68.9419696471</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6.3202614647</v>
-      </c>
-      <c r="D8" s="3">
-        <v>36.9387168235</v>
-      </c>
-      <c r="E8" s="3">
-        <v>63.8378042745</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3">
-        <v>529.0749282353</v>
-      </c>
-      <c r="C9" s="2">
-        <v>233.4221882353</v>
-      </c>
-      <c r="D9" s="3">
-        <v>359.582077451</v>
-      </c>
-      <c r="E9" s="3">
-        <v>460.8903094118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3">
-        <v>189.3701482353</v>
-      </c>
-      <c r="C10" s="3">
-        <v>189.3719607843</v>
-      </c>
-      <c r="D10" s="2">
-        <v>174.5205048039</v>
-      </c>
-      <c r="E10" s="3">
-        <v>220.5350423529</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3">
-        <v>5918.5534666667</v>
-      </c>
-      <c r="C11" s="2">
-        <v>65.2973029608</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2841.8463756863</v>
-      </c>
-      <c r="E11" s="3">
-        <v>6211.9975156863</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3">
-        <v>6042.3757784314</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3763.561372549</v>
-      </c>
-      <c r="D12" s="3">
-        <v>6938.0890215686</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4843.5091568627</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3">
-        <v>398.0148978431</v>
-      </c>
-      <c r="C13" s="2">
-        <v>79.5827970588</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1207.1347803922</v>
-      </c>
-      <c r="E13" s="3">
-        <v>153.7264097059</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3">
-        <v>85847397.80392157</v>
-      </c>
-      <c r="C14" s="2">
-        <v>325765.1509803921</v>
-      </c>
-      <c r="D14" s="3">
-        <v>358570597.2156863</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2528490.944117648</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1880356.845196079</v>
-      </c>
-      <c r="C15" s="2">
-        <v>153.6136039216</v>
-      </c>
-      <c r="D15" s="3">
-        <v>45075853.76862745</v>
-      </c>
-      <c r="E15" s="3">
-        <v>192595.7295098039</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="3">
-        <v>17969.2468445098</v>
-      </c>
-      <c r="C16" s="2">
-        <v>71.0022382353</v>
-      </c>
-      <c r="D16" s="3">
-        <v>305870.5263921568</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3286.4881323529</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="3">
-        <v>61639.2648294118</v>
-      </c>
-      <c r="C17" s="2">
-        <v>62.5567343137</v>
-      </c>
-      <c r="D17" s="3">
-        <v>273710.0760196079</v>
-      </c>
-      <c r="E17" s="3">
-        <v>88523.29543137251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="3">
-        <v>2007.7714196078</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1319.2334901961</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1568.2914596078</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1657.9891337255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="3">
-        <v>822.3996780392</v>
-      </c>
-      <c r="C19" s="3">
-        <v>480.8806464706</v>
-      </c>
-      <c r="D19" s="2">
-        <v>472.5475807843</v>
-      </c>
-      <c r="E19" s="3">
-        <v>847.1460447059</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="3">
-        <v>310964.701019608</v>
-      </c>
-      <c r="C20" s="2">
-        <v>61.2224523529</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2170364.168431372</v>
-      </c>
-      <c r="E20" s="3">
-        <v>88546.4832941176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B21" s="3">
-        <v>1888271.53627451</v>
+        <v>64.182199598</v>
       </c>
       <c r="C21" s="2">
-        <v>35.7226817647</v>
+        <v>0.0051923244</v>
       </c>
       <c r="D21" s="3">
-        <v>1260193.662901961</v>
+        <v>5101.26633</v>
       </c>
       <c r="E21" s="3">
-        <v>150965.7130196079</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>3219.6057411765</v>
+      </c>
+      <c r="F21" s="3">
+        <v>124.601438902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="3">
-        <v>720.7965280392</v>
-      </c>
-      <c r="C22" s="2">
-        <v>275.1128247059</v>
+        <v>128.3756979804</v>
+      </c>
+      <c r="C22" s="3">
+        <v>383.6904686275</v>
       </c>
       <c r="D22" s="3">
-        <v>462.1450868627</v>
-      </c>
-      <c r="E22" s="3">
-        <v>645.0489992157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>475.36217</v>
+      </c>
+      <c r="E22" s="2">
+        <v>84.4391033725</v>
+      </c>
+      <c r="F22" s="3">
+        <v>105.7736046078</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="3">
-        <v>447.7568772549</v>
-      </c>
-      <c r="C23" s="2">
-        <v>325.4940980392</v>
+        <v>176.942994549</v>
+      </c>
+      <c r="C23" s="3">
+        <v>188.8937176471</v>
       </c>
       <c r="D23" s="3">
-        <v>411.2915998039</v>
+        <v>375.67745</v>
       </c>
       <c r="E23" s="3">
-        <v>450.236195098</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>131.9519646078</v>
+      </c>
+      <c r="F23" s="2">
+        <v>104.3911663529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="3">
-        <v>1987.1465217647</v>
-      </c>
-      <c r="C24" s="2">
-        <v>100.2234960784</v>
+        <v>114.7547752745</v>
+      </c>
+      <c r="C24" s="3">
+        <v>100.481</v>
       </c>
       <c r="D24" s="3">
-        <v>1026.5725205882</v>
-      </c>
-      <c r="E24" s="3">
-        <v>4196.221111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>1852.95438</v>
+      </c>
+      <c r="E24" s="2">
+        <v>77.4041808039</v>
+      </c>
+      <c r="F24" s="3">
+        <v>109.088398451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="3">
-        <v>840.9894833333</v>
-      </c>
-      <c r="C25" s="2">
-        <v>534.6091764706</v>
+        <v>342.7784139216</v>
+      </c>
+      <c r="C25" s="3">
+        <v>809.7517235294</v>
       </c>
       <c r="D25" s="3">
-        <v>640.4297605882</v>
-      </c>
-      <c r="E25" s="3">
-        <v>836.5145307843</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>766.38613</v>
+      </c>
+      <c r="E25" s="2">
+        <v>330.404375098</v>
+      </c>
+      <c r="F25" s="3">
+        <v>348.7045044889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" s="3">
-        <v>878.78126</v>
+        <v>345.9974841373</v>
       </c>
       <c r="C26" s="2">
-        <v>605.9018411765001</v>
+        <v>100</v>
       </c>
       <c r="D26" s="3">
-        <v>709.5055852941</v>
+        <v>456.73483</v>
       </c>
       <c r="E26" s="3">
-        <v>926.3820403922</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>181.0388360392</v>
+      </c>
+      <c r="F26" s="3">
+        <v>259.6582712745</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" s="3">
-        <v>505.5116776471</v>
+        <v>434.801705098</v>
       </c>
       <c r="C27" s="2">
-        <v>387.027972549</v>
+        <v>404.0113156863</v>
       </c>
       <c r="D27" s="3">
-        <v>686.3826468627</v>
+        <v>488.24801</v>
       </c>
       <c r="E27" s="3">
-        <v>417.5792415686</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>447.8069123529</v>
+      </c>
+      <c r="F27" s="3">
+        <v>437.9551664706</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" s="3">
-        <v>4529.0261901961</v>
+        <v>504.7361672353</v>
       </c>
       <c r="C28" s="2">
-        <v>403.7672980392</v>
+        <v>270.5882352941</v>
       </c>
       <c r="D28" s="3">
-        <v>3369.3574784314</v>
+        <v>1846.37233</v>
       </c>
       <c r="E28" s="3">
-        <v>5521.6873580392</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>372.9315798039</v>
+      </c>
+      <c r="F28" s="3">
+        <v>390.409494202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" s="3">
-        <v>812.6841731373</v>
+        <v>419.7187245098</v>
       </c>
       <c r="C29" s="2">
-        <v>492.5197803922</v>
+        <v>389.728327451</v>
       </c>
       <c r="D29" s="3">
-        <v>806.8056270588</v>
+        <v>806.47303</v>
       </c>
       <c r="E29" s="3">
-        <v>655.0159421569</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>413.4232378431</v>
+      </c>
+      <c r="F29" s="3">
+        <v>411.6924003922</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" s="3">
-        <v>554.6830056863</v>
+        <v>546.8650154902</v>
       </c>
       <c r="C30" s="2">
-        <v>394.2695647059</v>
+        <v>351.7333098039</v>
       </c>
       <c r="D30" s="3">
-        <v>1105.0358203922</v>
+        <v>666.16845</v>
       </c>
       <c r="E30" s="3">
-        <v>489.6094933333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>469.7623388235</v>
+      </c>
+      <c r="F30" s="3">
+        <v>431.8347390196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" s="3">
-        <v>2088.1168627451</v>
+        <v>375.1733578431</v>
       </c>
       <c r="C31" s="2">
-        <v>1025.0945705882</v>
+        <v>237.5455352941</v>
       </c>
       <c r="D31" s="3">
-        <v>1409.1257576471</v>
+        <v>745.59173</v>
       </c>
       <c r="E31" s="3">
-        <v>1934.2986921569</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>319.2936092157</v>
+      </c>
+      <c r="F31" s="3">
+        <v>367.6340145098</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="3">
-        <v>9838704.150980392</v>
+        <v>35</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2470924.30004804</v>
       </c>
       <c r="C32" s="3">
-        <v>3656.5519411765</v>
-      </c>
-      <c r="D32" s="2">
-        <v>13585754.59137255</v>
+        <v>80512.17467254899</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1365456.176</v>
       </c>
       <c r="E32" s="3">
-        <v>2308203.213137255</v>
+        <v>635248.1993333332</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1469003.634450981</v>
       </c>
     </row>
   </sheetData>
